--- a/Dataset2.xlsx
+++ b/Dataset2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek kr yadav\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek kr yadav\Downloads\SQL-portfolio-project-files-and-codes-main\SQL-portfolio-project-files-and-codes-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CED425C-18EA-4182-9447-EB790B4A14D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0A725-0BBF-405C-B9E3-80526E7A83BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11523284-0241-4415-9F25-7346B9ABE73A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFEB43A2-250E-49A7-BA97-6FAD74C76918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2383,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D204E-39D1-484D-BA30-8D1EFD9F1D65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D99D82E-0530-4B20-977E-F00FE1C1EE66}">
   <dimension ref="A1:D1281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
